--- a/prime_test/PrimeResults.xlsx
+++ b/prime_test/PrimeResults.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Feldscher\Documents\SharedDocs\Thesis\PerformanceDesignPatterns\prime_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F26B47-FA08-48BC-8624-0B531D690B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B6177-38E6-4A9D-8FAD-123ECD1A5292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{9FCC40AB-DF6A-4D7A-80A0-2EC9BEB33E82}"/>
+    <workbookView xWindow="4125" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{9FCC40AB-DF6A-4D7A-80A0-2EC9BEB33E82}"/>
   </bookViews>
   <sheets>
-    <sheet name="10k" sheetId="1" r:id="rId1"/>
-    <sheet name="100k" sheetId="2" r:id="rId2"/>
-    <sheet name="1m" sheetId="3" r:id="rId3"/>
-    <sheet name="5m" sheetId="4" r:id="rId4"/>
+    <sheet name="J 10k" sheetId="1" r:id="rId1"/>
+    <sheet name="J 100k" sheetId="2" r:id="rId2"/>
+    <sheet name="J 1m" sheetId="3" r:id="rId3"/>
+    <sheet name="J 5m" sheetId="4" r:id="rId4"/>
+    <sheet name="C 10k" sheetId="7" r:id="rId5"/>
+    <sheet name="C 1m" sheetId="5" r:id="rId6"/>
+    <sheet name="C 5m" sheetId="6" r:id="rId7"/>
+    <sheet name="CJ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>iter</t>
   </si>
@@ -76,6 +80,33 @@
   </si>
   <si>
     <t>Java 10 max 5,000,000, getchar</t>
+  </si>
+  <si>
+    <t>C 1m no delay</t>
+  </si>
+  <si>
+    <t>C 1m sleep(1)</t>
+  </si>
+  <si>
+    <t>C 1m getchar</t>
+  </si>
+  <si>
+    <t>primes</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>C 5m no delay</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>C 10k no delay</t>
   </si>
 </sst>
 </file>
@@ -132,11 +163,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -251,7 +282,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'10k'!$B$3:$B$22</c:f>
+              <c:f>'J 10k'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -345,7 +376,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'10k'!$G$3:$G$22</c:f>
+              <c:f>'J 10k'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -439,7 +470,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'10k'!$L$3:$L$22</c:f>
+              <c:f>'J 10k'!$L$3:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -533,7 +564,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'10k'!$Q$3:$Q$22</c:f>
+              <c:f>'J 10k'!$Q$3:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -903,7 +934,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100k'!$B$3:$B$22</c:f>
+              <c:f>'J 100k'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -997,7 +1028,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100k'!$G$3:$G$22</c:f>
+              <c:f>'J 100k'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1367,7 +1398,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1m'!$B$3:$B$22</c:f>
+              <c:f>'J 1m'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1461,7 +1492,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1m'!$G$3:$G$22</c:f>
+              <c:f>'J 1m'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1836,7 +1867,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'5m'!$B$3:$B$22</c:f>
+              <c:f>'J 5m'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1930,7 +1961,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'5m'!$G$3:$G$22</c:f>
+              <c:f>'J 5m'!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2119,6 +2150,1480 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="409024200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No delay</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'C 1m'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>201197800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203237900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200878800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202948000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197130500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197533100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196419400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206162300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211639600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201265100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201316200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>196719000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207004700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197530000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>193692600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197852200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191423600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>189717800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199638100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188485900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEB5-45A0-B7D7-7D6AA8E1FFF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sleep</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'C 1m'!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>182865200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182967600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184515000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190633200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230467200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182998200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182649300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184466900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191211000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189199100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182752900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182711900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183307700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189096000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>184700100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183534000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181889300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182167700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184161800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191799000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEB5-45A0-B7D7-7D6AA8E1FFF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>getchar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'C 1m'!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>186628100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194694200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186502200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187675200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190228300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200057200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186130200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193180600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204623100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190337500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193884500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232894600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194769900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195329900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>191089900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>197160800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196752300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>189826900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192723900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188069600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEB5-45A0-B7D7-7D6AA8E1FFF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="307220368"/>
+        <c:axId val="396287192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="307220368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396287192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396287192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307220368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5m C vs Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38355555555555559"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CJ!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3754957100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2446782700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2459743700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2594196600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2603088200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2516144200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2347337100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2529299200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2503334300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2352285500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2833111000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2370013800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2505595300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2478904600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2310344100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2469359900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2433446900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2448341900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2397607900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2480547900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F33-40F8-B360-AED92A790F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CJ!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1772400400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1889081700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980385600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1852874900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1847312600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1779836600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1773076600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1774483500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1780743400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1766724700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1767335900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1759353100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1753486100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1779190000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1769249400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1760196800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1770454700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1761152800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1778582200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1850904300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F33-40F8-B360-AED92A790F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406511776"/>
+        <c:axId val="406518664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406511776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406518664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406518664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406511776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10k C vs Java</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CJ!$B$27:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3903400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1560700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1742100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>831300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1141200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>850400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>684300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>586200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>726200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>687600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>822900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>676600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>652400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>672400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>700400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>691700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>783900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>828000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2A3-4461-A5EE-D399CA87FB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CJ!$G$27:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>586200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>436000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>955200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>465200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>445300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>463500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>374700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>603800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>629500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>592400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>394400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>367700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>363200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>361600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>361400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2A3-4461-A5EE-D399CA87FB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406505544"/>
+        <c:axId val="406513416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406505544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406513416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406513416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406505544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2365,6 +3870,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3914,6 +5539,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4585,6 +7758,124 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D801B153-EBB0-4DDE-A9EE-03DF3D14881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CFB860-3244-4CAF-BC3C-DF2B4FCCFC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34345D28-D260-48FD-8424-25E4A87BDFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4893,7 +8184,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="K1" sqref="K1:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,78 +8199,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6080,30 +9371,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -6684,7 +9975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4CBEEE-6851-4B3B-A2A7-6B49C0D78065}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6696,30 +9987,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -6736,16 +10027,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>448744700</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.4487447</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>78498</v>
       </c>
       <c r="F3">
@@ -7269,25 +10560,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D15A457-1FE6-4964-9824-B34DFC220E70}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7843,4 +11134,2629 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1919F5B4-C6EC-4F39-941A-98FFDC7971A1}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>586200</v>
+      </c>
+      <c r="C3">
+        <v>5.8600000000000004E-4</v>
+      </c>
+      <c r="D3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>436000</v>
+      </c>
+      <c r="C4">
+        <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="D4">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>419900</v>
+      </c>
+      <c r="C5">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="D5">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>955200</v>
+      </c>
+      <c r="C6">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="D6">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>465200</v>
+      </c>
+      <c r="C7">
+        <v>4.6500000000000003E-4</v>
+      </c>
+      <c r="D7">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>445300</v>
+      </c>
+      <c r="C8">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="D8">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>358400</v>
+      </c>
+      <c r="C9">
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="D9">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>417800</v>
+      </c>
+      <c r="C10">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="D10">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>463500</v>
+      </c>
+      <c r="C11">
+        <v>4.64E-4</v>
+      </c>
+      <c r="D11">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>374700</v>
+      </c>
+      <c r="C12">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D12">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>603800</v>
+      </c>
+      <c r="C13">
+        <v>6.0400000000000004E-4</v>
+      </c>
+      <c r="D13">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>629500</v>
+      </c>
+      <c r="C14">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="D14">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>592400</v>
+      </c>
+      <c r="C15">
+        <v>5.9199999999999997E-4</v>
+      </c>
+      <c r="D15">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>394400</v>
+      </c>
+      <c r="C16">
+        <v>3.9399999999999998E-4</v>
+      </c>
+      <c r="D16">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>367700</v>
+      </c>
+      <c r="C17">
+        <v>3.68E-4</v>
+      </c>
+      <c r="D17">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>381900</v>
+      </c>
+      <c r="C18">
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="D18">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>363200</v>
+      </c>
+      <c r="C19">
+        <v>3.6299999999999999E-4</v>
+      </c>
+      <c r="D19">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>361600</v>
+      </c>
+      <c r="C20">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="D20">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>378500</v>
+      </c>
+      <c r="C21">
+        <v>3.79E-4</v>
+      </c>
+      <c r="D21">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>361400</v>
+      </c>
+      <c r="C22">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="D22">
+        <v>1229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9691537F-C993-4C38-BA05-66DC413F715F}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>201197800</v>
+      </c>
+      <c r="C3">
+        <v>0.20119799999999999</v>
+      </c>
+      <c r="D3">
+        <v>78498</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>182865200</v>
+      </c>
+      <c r="H3">
+        <v>0.182865</v>
+      </c>
+      <c r="I3">
+        <v>78498</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>186628100</v>
+      </c>
+      <c r="M3">
+        <v>0.18662799999999999</v>
+      </c>
+      <c r="N3">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>203237900</v>
+      </c>
+      <c r="C4">
+        <v>0.203238</v>
+      </c>
+      <c r="D4">
+        <v>78498</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>182967600</v>
+      </c>
+      <c r="H4">
+        <v>0.18296799999999999</v>
+      </c>
+      <c r="I4">
+        <v>78498</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>194694200</v>
+      </c>
+      <c r="M4">
+        <v>0.19469400000000001</v>
+      </c>
+      <c r="N4">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>200878800</v>
+      </c>
+      <c r="C5">
+        <v>0.200879</v>
+      </c>
+      <c r="D5">
+        <v>78498</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>184515000</v>
+      </c>
+      <c r="H5">
+        <v>0.18451500000000001</v>
+      </c>
+      <c r="I5">
+        <v>78498</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>186502200</v>
+      </c>
+      <c r="M5">
+        <v>0.186502</v>
+      </c>
+      <c r="N5">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>202948000</v>
+      </c>
+      <c r="C6">
+        <v>0.20294799999999999</v>
+      </c>
+      <c r="D6">
+        <v>78498</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>190633200</v>
+      </c>
+      <c r="H6">
+        <v>0.190633</v>
+      </c>
+      <c r="I6">
+        <v>78498</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>187675200</v>
+      </c>
+      <c r="M6">
+        <v>0.18767500000000001</v>
+      </c>
+      <c r="N6">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>197130500</v>
+      </c>
+      <c r="C7">
+        <v>0.19713</v>
+      </c>
+      <c r="D7">
+        <v>78498</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>230467200</v>
+      </c>
+      <c r="H7">
+        <v>0.23046700000000001</v>
+      </c>
+      <c r="I7">
+        <v>78498</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>190228300</v>
+      </c>
+      <c r="M7">
+        <v>0.19022800000000001</v>
+      </c>
+      <c r="N7">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>197533100</v>
+      </c>
+      <c r="C8">
+        <v>0.19753299999999999</v>
+      </c>
+      <c r="D8">
+        <v>78498</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>182998200</v>
+      </c>
+      <c r="H8">
+        <v>0.18299799999999999</v>
+      </c>
+      <c r="I8">
+        <v>78498</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>200057200</v>
+      </c>
+      <c r="M8">
+        <v>0.20005700000000001</v>
+      </c>
+      <c r="N8">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>196419400</v>
+      </c>
+      <c r="C9">
+        <v>0.19641900000000001</v>
+      </c>
+      <c r="D9">
+        <v>78498</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>182649300</v>
+      </c>
+      <c r="H9">
+        <v>0.18264900000000001</v>
+      </c>
+      <c r="I9">
+        <v>78498</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>186130200</v>
+      </c>
+      <c r="M9">
+        <v>0.18612999999999999</v>
+      </c>
+      <c r="N9">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>206162300</v>
+      </c>
+      <c r="C10">
+        <v>0.20616200000000001</v>
+      </c>
+      <c r="D10">
+        <v>78498</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>184466900</v>
+      </c>
+      <c r="H10">
+        <v>0.18446699999999999</v>
+      </c>
+      <c r="I10">
+        <v>78498</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>193180600</v>
+      </c>
+      <c r="M10">
+        <v>0.19318099999999999</v>
+      </c>
+      <c r="N10">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>211639600</v>
+      </c>
+      <c r="C11">
+        <v>0.21163999999999999</v>
+      </c>
+      <c r="D11">
+        <v>78498</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>191211000</v>
+      </c>
+      <c r="H11">
+        <v>0.19121099999999999</v>
+      </c>
+      <c r="I11">
+        <v>78498</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>204623100</v>
+      </c>
+      <c r="M11">
+        <v>0.204623</v>
+      </c>
+      <c r="N11">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>201265100</v>
+      </c>
+      <c r="C12">
+        <v>0.201265</v>
+      </c>
+      <c r="D12">
+        <v>78498</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>189199100</v>
+      </c>
+      <c r="H12">
+        <v>0.18919900000000001</v>
+      </c>
+      <c r="I12">
+        <v>78498</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>190337500</v>
+      </c>
+      <c r="M12">
+        <v>0.19033800000000001</v>
+      </c>
+      <c r="N12">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>201316200</v>
+      </c>
+      <c r="C13">
+        <v>0.20131599999999999</v>
+      </c>
+      <c r="D13">
+        <v>78498</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>182752900</v>
+      </c>
+      <c r="H13">
+        <v>0.182753</v>
+      </c>
+      <c r="I13">
+        <v>78498</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>193884500</v>
+      </c>
+      <c r="M13">
+        <v>0.193884</v>
+      </c>
+      <c r="N13">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>196719000</v>
+      </c>
+      <c r="C14">
+        <v>0.196719</v>
+      </c>
+      <c r="D14">
+        <v>78498</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>182711900</v>
+      </c>
+      <c r="H14">
+        <v>0.18271200000000001</v>
+      </c>
+      <c r="I14">
+        <v>78498</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>232894600</v>
+      </c>
+      <c r="M14">
+        <v>0.23289499999999999</v>
+      </c>
+      <c r="N14">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>207004700</v>
+      </c>
+      <c r="C15">
+        <v>0.20700499999999999</v>
+      </c>
+      <c r="D15">
+        <v>78498</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>183307700</v>
+      </c>
+      <c r="H15">
+        <v>0.183308</v>
+      </c>
+      <c r="I15">
+        <v>78498</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>194769900</v>
+      </c>
+      <c r="M15">
+        <v>0.19477</v>
+      </c>
+      <c r="N15">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>197530000</v>
+      </c>
+      <c r="C16">
+        <v>0.19753000000000001</v>
+      </c>
+      <c r="D16">
+        <v>78498</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>189096000</v>
+      </c>
+      <c r="H16">
+        <v>0.18909599999999999</v>
+      </c>
+      <c r="I16">
+        <v>78498</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>195329900</v>
+      </c>
+      <c r="M16">
+        <v>0.19533</v>
+      </c>
+      <c r="N16">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>193692600</v>
+      </c>
+      <c r="C17">
+        <v>0.193693</v>
+      </c>
+      <c r="D17">
+        <v>78498</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>184700100</v>
+      </c>
+      <c r="H17">
+        <v>0.1847</v>
+      </c>
+      <c r="I17">
+        <v>78498</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>191089900</v>
+      </c>
+      <c r="M17">
+        <v>0.19109000000000001</v>
+      </c>
+      <c r="N17">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>197852200</v>
+      </c>
+      <c r="C18">
+        <v>0.197852</v>
+      </c>
+      <c r="D18">
+        <v>78498</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>183534000</v>
+      </c>
+      <c r="H18">
+        <v>0.183534</v>
+      </c>
+      <c r="I18">
+        <v>78498</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>197160800</v>
+      </c>
+      <c r="M18">
+        <v>0.197161</v>
+      </c>
+      <c r="N18">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>191423600</v>
+      </c>
+      <c r="C19">
+        <v>0.19142400000000001</v>
+      </c>
+      <c r="D19">
+        <v>78498</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>181889300</v>
+      </c>
+      <c r="H19">
+        <v>0.181889</v>
+      </c>
+      <c r="I19">
+        <v>78498</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>196752300</v>
+      </c>
+      <c r="M19">
+        <v>0.19675200000000001</v>
+      </c>
+      <c r="N19">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>189717800</v>
+      </c>
+      <c r="C20">
+        <v>0.189718</v>
+      </c>
+      <c r="D20">
+        <v>78498</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>182167700</v>
+      </c>
+      <c r="H20">
+        <v>0.182168</v>
+      </c>
+      <c r="I20">
+        <v>78498</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>189826900</v>
+      </c>
+      <c r="M20">
+        <v>0.189827</v>
+      </c>
+      <c r="N20">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>199638100</v>
+      </c>
+      <c r="C21">
+        <v>0.19963800000000001</v>
+      </c>
+      <c r="D21">
+        <v>78498</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>184161800</v>
+      </c>
+      <c r="H21">
+        <v>0.18416199999999999</v>
+      </c>
+      <c r="I21">
+        <v>78498</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>192723900</v>
+      </c>
+      <c r="M21">
+        <v>0.19272400000000001</v>
+      </c>
+      <c r="N21">
+        <v>78498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>188485900</v>
+      </c>
+      <c r="C22">
+        <v>0.18848599999999999</v>
+      </c>
+      <c r="D22">
+        <v>78498</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>191799000</v>
+      </c>
+      <c r="H22">
+        <v>0.191799</v>
+      </c>
+      <c r="I22">
+        <v>78498</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>188069600</v>
+      </c>
+      <c r="M22">
+        <v>0.18806999999999999</v>
+      </c>
+      <c r="N22">
+        <v>78498</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA61129-0FAB-4EDC-B754-D9539E87160F}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1772400400</v>
+      </c>
+      <c r="C3">
+        <v>1.7724</v>
+      </c>
+      <c r="D3">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1889081700</v>
+      </c>
+      <c r="C4">
+        <v>1.8890819999999999</v>
+      </c>
+      <c r="D4">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1980385600</v>
+      </c>
+      <c r="C5">
+        <v>1.980386</v>
+      </c>
+      <c r="D5">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1852874900</v>
+      </c>
+      <c r="C6">
+        <v>1.852875</v>
+      </c>
+      <c r="D6">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1847312600</v>
+      </c>
+      <c r="C7">
+        <v>1.847313</v>
+      </c>
+      <c r="D7">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1779836600</v>
+      </c>
+      <c r="C8">
+        <v>1.7798369999999999</v>
+      </c>
+      <c r="D8">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1773076600</v>
+      </c>
+      <c r="C9">
+        <v>1.773077</v>
+      </c>
+      <c r="D9">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1774483500</v>
+      </c>
+      <c r="C10">
+        <v>1.774484</v>
+      </c>
+      <c r="D10">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1780743400</v>
+      </c>
+      <c r="C11">
+        <v>1.780743</v>
+      </c>
+      <c r="D11">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1766724700</v>
+      </c>
+      <c r="C12">
+        <v>1.7667250000000001</v>
+      </c>
+      <c r="D12">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1767335900</v>
+      </c>
+      <c r="C13">
+        <v>1.767336</v>
+      </c>
+      <c r="D13">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1759353100</v>
+      </c>
+      <c r="C14">
+        <v>1.7593529999999999</v>
+      </c>
+      <c r="D14">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1753486100</v>
+      </c>
+      <c r="C15">
+        <v>1.7534860000000001</v>
+      </c>
+      <c r="D15">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1779190000</v>
+      </c>
+      <c r="C16">
+        <v>1.77919</v>
+      </c>
+      <c r="D16">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1769249400</v>
+      </c>
+      <c r="C17">
+        <v>1.7692490000000001</v>
+      </c>
+      <c r="D17">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1760196800</v>
+      </c>
+      <c r="C18">
+        <v>1.760197</v>
+      </c>
+      <c r="D18">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1770454700</v>
+      </c>
+      <c r="C19">
+        <v>1.7704549999999999</v>
+      </c>
+      <c r="D19">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1761152800</v>
+      </c>
+      <c r="C20">
+        <v>1.761153</v>
+      </c>
+      <c r="D20">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1778582200</v>
+      </c>
+      <c r="C21">
+        <v>1.7785820000000001</v>
+      </c>
+      <c r="D21">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1850904300</v>
+      </c>
+      <c r="C22">
+        <v>1.8509040000000001</v>
+      </c>
+      <c r="D22">
+        <v>348513</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A643727A-FF2C-450E-B2D5-F0B4AA8EC08A}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3754957100</v>
+      </c>
+      <c r="C3">
+        <v>3.7549570999999999</v>
+      </c>
+      <c r="D3">
+        <v>348513</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1772400400</v>
+      </c>
+      <c r="H3">
+        <v>1.7724</v>
+      </c>
+      <c r="I3">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2446782700</v>
+      </c>
+      <c r="C4">
+        <v>2.4467827</v>
+      </c>
+      <c r="D4">
+        <v>348513</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1889081700</v>
+      </c>
+      <c r="H4">
+        <v>1.8890819999999999</v>
+      </c>
+      <c r="I4">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2459743700</v>
+      </c>
+      <c r="C5">
+        <v>2.4597437000000002</v>
+      </c>
+      <c r="D5">
+        <v>348513</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1980385600</v>
+      </c>
+      <c r="H5">
+        <v>1.980386</v>
+      </c>
+      <c r="I5">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2594196600</v>
+      </c>
+      <c r="C6">
+        <v>2.5941966000000001</v>
+      </c>
+      <c r="D6">
+        <v>348513</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1852874900</v>
+      </c>
+      <c r="H6">
+        <v>1.852875</v>
+      </c>
+      <c r="I6">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2603088200</v>
+      </c>
+      <c r="C7">
+        <v>2.6030882000000002</v>
+      </c>
+      <c r="D7">
+        <v>348513</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1847312600</v>
+      </c>
+      <c r="H7">
+        <v>1.847313</v>
+      </c>
+      <c r="I7">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2516144200</v>
+      </c>
+      <c r="C8">
+        <v>2.5161441999999998</v>
+      </c>
+      <c r="D8">
+        <v>348513</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1779836600</v>
+      </c>
+      <c r="H8">
+        <v>1.7798369999999999</v>
+      </c>
+      <c r="I8">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2347337100</v>
+      </c>
+      <c r="C9">
+        <v>2.3473370999999998</v>
+      </c>
+      <c r="D9">
+        <v>348513</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1773076600</v>
+      </c>
+      <c r="H9">
+        <v>1.773077</v>
+      </c>
+      <c r="I9">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2529299200</v>
+      </c>
+      <c r="C10">
+        <v>2.5292992000000001</v>
+      </c>
+      <c r="D10">
+        <v>348513</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1774483500</v>
+      </c>
+      <c r="H10">
+        <v>1.774484</v>
+      </c>
+      <c r="I10">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2503334300</v>
+      </c>
+      <c r="C11">
+        <v>2.5033343000000001</v>
+      </c>
+      <c r="D11">
+        <v>348513</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1780743400</v>
+      </c>
+      <c r="H11">
+        <v>1.780743</v>
+      </c>
+      <c r="I11">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2352285500</v>
+      </c>
+      <c r="C12">
+        <v>2.3522854999999998</v>
+      </c>
+      <c r="D12">
+        <v>348513</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1766724700</v>
+      </c>
+      <c r="H12">
+        <v>1.7667250000000001</v>
+      </c>
+      <c r="I12">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2833111000</v>
+      </c>
+      <c r="C13">
+        <v>2.8331110000000002</v>
+      </c>
+      <c r="D13">
+        <v>348513</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1767335900</v>
+      </c>
+      <c r="H13">
+        <v>1.767336</v>
+      </c>
+      <c r="I13">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2370013800</v>
+      </c>
+      <c r="C14">
+        <v>2.3700138000000002</v>
+      </c>
+      <c r="D14">
+        <v>348513</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1759353100</v>
+      </c>
+      <c r="H14">
+        <v>1.7593529999999999</v>
+      </c>
+      <c r="I14">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2505595300</v>
+      </c>
+      <c r="C15">
+        <v>2.5055953</v>
+      </c>
+      <c r="D15">
+        <v>348513</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1753486100</v>
+      </c>
+      <c r="H15">
+        <v>1.7534860000000001</v>
+      </c>
+      <c r="I15">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2478904600</v>
+      </c>
+      <c r="C16">
+        <v>2.4789045999999999</v>
+      </c>
+      <c r="D16">
+        <v>348513</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1779190000</v>
+      </c>
+      <c r="H16">
+        <v>1.77919</v>
+      </c>
+      <c r="I16">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2310344100</v>
+      </c>
+      <c r="C17">
+        <v>2.3103441</v>
+      </c>
+      <c r="D17">
+        <v>348513</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1769249400</v>
+      </c>
+      <c r="H17">
+        <v>1.7692490000000001</v>
+      </c>
+      <c r="I17">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2469359900</v>
+      </c>
+      <c r="C18">
+        <v>2.4693599000000002</v>
+      </c>
+      <c r="D18">
+        <v>348513</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1760196800</v>
+      </c>
+      <c r="H18">
+        <v>1.760197</v>
+      </c>
+      <c r="I18">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2433446900</v>
+      </c>
+      <c r="C19">
+        <v>2.4334468999999999</v>
+      </c>
+      <c r="D19">
+        <v>348513</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>1770454700</v>
+      </c>
+      <c r="H19">
+        <v>1.7704549999999999</v>
+      </c>
+      <c r="I19">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2448341900</v>
+      </c>
+      <c r="C20">
+        <v>2.4483419</v>
+      </c>
+      <c r="D20">
+        <v>348513</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>1761152800</v>
+      </c>
+      <c r="H20">
+        <v>1.761153</v>
+      </c>
+      <c r="I20">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2397607900</v>
+      </c>
+      <c r="C21">
+        <v>2.3976079000000001</v>
+      </c>
+      <c r="D21">
+        <v>348513</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1778582200</v>
+      </c>
+      <c r="H21">
+        <v>1.7785820000000001</v>
+      </c>
+      <c r="I21">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2480547900</v>
+      </c>
+      <c r="C22">
+        <v>2.4805478999999999</v>
+      </c>
+      <c r="D22">
+        <v>348513</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1850904300</v>
+      </c>
+      <c r="H22">
+        <v>1.8509040000000001</v>
+      </c>
+      <c r="I22">
+        <v>348513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3903400</v>
+      </c>
+      <c r="C27">
+        <v>3.9034E-3</v>
+      </c>
+      <c r="D27">
+        <v>1229</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>586200</v>
+      </c>
+      <c r="H27">
+        <v>5.8600000000000004E-4</v>
+      </c>
+      <c r="I27">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1560700</v>
+      </c>
+      <c r="C28">
+        <v>1.5606999999999999E-3</v>
+      </c>
+      <c r="D28">
+        <v>1229</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>436000</v>
+      </c>
+      <c r="H28">
+        <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="I28">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1742100</v>
+      </c>
+      <c r="C29">
+        <v>1.7420999999999999E-3</v>
+      </c>
+      <c r="D29">
+        <v>1229</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>419900</v>
+      </c>
+      <c r="H29">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="I29">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>831300</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.3129999999999999E-4</v>
+      </c>
+      <c r="D30">
+        <v>1229</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>955200</v>
+      </c>
+      <c r="H30">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="I30">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>551300</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.5130000000000001E-4</v>
+      </c>
+      <c r="D31">
+        <v>1229</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>465200</v>
+      </c>
+      <c r="H31">
+        <v>4.6500000000000003E-4</v>
+      </c>
+      <c r="I31">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1141200</v>
+      </c>
+      <c r="C32">
+        <v>1.1412E-3</v>
+      </c>
+      <c r="D32">
+        <v>1229</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>445300</v>
+      </c>
+      <c r="H32">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="I32">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>850400</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8.5039999999999996E-4</v>
+      </c>
+      <c r="D33">
+        <v>1229</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>358400</v>
+      </c>
+      <c r="H33">
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="I33">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>684300</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.8429999999999999E-4</v>
+      </c>
+      <c r="D34">
+        <v>1229</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>417800</v>
+      </c>
+      <c r="H34">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="I34">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>586200</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.8620000000000005E-4</v>
+      </c>
+      <c r="D35">
+        <v>1229</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>463500</v>
+      </c>
+      <c r="H35">
+        <v>4.64E-4</v>
+      </c>
+      <c r="I35">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>726200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.2619999999999998E-4</v>
+      </c>
+      <c r="D36">
+        <v>1229</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>374700</v>
+      </c>
+      <c r="H36">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="I36">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>687600</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.8760000000000002E-4</v>
+      </c>
+      <c r="D37">
+        <v>1229</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>603800</v>
+      </c>
+      <c r="H37">
+        <v>6.0400000000000004E-4</v>
+      </c>
+      <c r="I37">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>822900</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.229E-4</v>
+      </c>
+      <c r="D38">
+        <v>1229</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>629500</v>
+      </c>
+      <c r="H38">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="I38">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>676600</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.7659999999999997E-4</v>
+      </c>
+      <c r="D39">
+        <v>1229</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>592400</v>
+      </c>
+      <c r="H39">
+        <v>5.9199999999999997E-4</v>
+      </c>
+      <c r="I39">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>800300</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.0029999999999999E-4</v>
+      </c>
+      <c r="D40">
+        <v>1229</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>394400</v>
+      </c>
+      <c r="H40">
+        <v>3.9399999999999998E-4</v>
+      </c>
+      <c r="I40">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>652400</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.5240000000000003E-4</v>
+      </c>
+      <c r="D41">
+        <v>1229</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>367700</v>
+      </c>
+      <c r="H41">
+        <v>3.68E-4</v>
+      </c>
+      <c r="I41">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>672400</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.7239999999999997E-4</v>
+      </c>
+      <c r="D42">
+        <v>1229</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>381900</v>
+      </c>
+      <c r="H42">
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="I42">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>700400</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7.004E-4</v>
+      </c>
+      <c r="D43">
+        <v>1229</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>363200</v>
+      </c>
+      <c r="H43">
+        <v>3.6299999999999999E-4</v>
+      </c>
+      <c r="I43">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>691700</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.9169999999999995E-4</v>
+      </c>
+      <c r="D44">
+        <v>1229</v>
+      </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>361600</v>
+      </c>
+      <c r="H44">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="I44">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>783900</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.8390000000000003E-4</v>
+      </c>
+      <c r="D45">
+        <v>1229</v>
+      </c>
+      <c r="F45">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>378500</v>
+      </c>
+      <c r="H45">
+        <v>3.79E-4</v>
+      </c>
+      <c r="I45">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>828000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.2799999999999996E-4</v>
+      </c>
+      <c r="D46">
+        <v>1229</v>
+      </c>
+      <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>361400</v>
+      </c>
+      <c r="H46">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="I46">
+        <v>1229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F25:I25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>